--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1407103.853597598</v>
+        <v>1442422.608923366</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914459</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>4.987681053581084</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>110.6978431430956</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>190.3453970742847</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>32.94517566205823</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>183.8842973311964</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="G8" t="n">
-        <v>96.13285199009043</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133.2862128302698</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>119.976662102474</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>123.2638648144208</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>192.4511255855239</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>85.4992371635698</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>259.9324751056893</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>65.19585717624211</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>30.37004117374418</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>96.34901040523354</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.08993799274037</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>189.5839632893193</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>90.51206582944629</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>31.36206477090696</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>52.51420629446924</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>55.2383766916986</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.49923716356957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.70235183863577</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.2453591408044</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>150.9670156523082</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>31.51871451439819</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2210,7 +2210,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>47.23959131629378</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>91.77887925397377</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>48.49388794489945</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3677099213027</v>
+        <v>56.02127570389438</v>
       </c>
       <c r="U24" t="n">
-        <v>155.6940865933796</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>94.1894579306725</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>47.23959131629378</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>291.8383568627819</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>292.1353264710085</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>133.0094536351697</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>85.83142067613393</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>26.73110927253621</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>13.08993799274015</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>73.903280940294</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.3390476399388</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>223.3184399210379</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3116,16 +3116,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>16.29864623799213</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>19.91941398152726</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>13.08993799274016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>278.4625393082491</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
-        <v>52.18293713757069</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>68.58536175915901</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>13.08993799274016</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>316.2747121305742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>123.5711335292952</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>142.74822002256</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>45.43345970665899</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>129.0949575344696</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.4067624819482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.6058677274472</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>313.3270671100598</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>119.3578801802372</v>
+        <v>140.3723668513051</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>13.08993799274044</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>116.4536054353379</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>173.791419614236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>54.55879030882556</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.3807559479629</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>106.3177182751569</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>948.9274784721252</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>737.7960950516754</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>737.7960950516754</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>737.7960950516754</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="V2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="W2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="X2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="Y2" t="n">
-        <v>494.3473184075753</v>
+        <v>254.2858631377404</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>668.2068788942177</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>703.5712627491056</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>53.31323097719867</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>570.4639408291474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.7036420641935</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4792,10 +4792,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>584.5057085574531</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>554.837743301797</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4950,7 +4950,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
         <v>41.77557929797318</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1508.363397262611</v>
+        <v>957.1584829806577</v>
       </c>
       <c r="C11" t="n">
-        <v>1139.4008803222</v>
+        <v>588.195966040246</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.4008803222</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E11" t="n">
-        <v>753.6126277239555</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F11" t="n">
-        <v>753.6126277239555</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>335.4249617945292</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5068,25 +5068,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1898.502729238423</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1898.502729238423</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1898.502729238423</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1898.502729238423</v>
+        <v>1343.758323044779</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.363397262611</v>
+        <v>1343.758323044779</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>735.640995400452</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>561.187966119325</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>412.2535564580737</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>253.0161014526182</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>253.0161014526182</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
         <v>1557.865593173221</v>
@@ -5162,10 +5162,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1111.616631185474</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>903.8563324205199</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>424.5997883913116</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U13" t="n">
-        <v>424.5997883913116</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V13" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.182618354351</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1228.224832637497</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="C14" t="n">
-        <v>859.2623156970851</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="D14" t="n">
-        <v>859.2623156970851</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="E14" t="n">
-        <v>473.4740630988409</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F14" t="n">
-        <v>210.9160074365284</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5278,7 +5278,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
         <v>412.307967997759</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>1967.593327971733</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V14" t="n">
-        <v>1967.593327971733</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W14" t="n">
-        <v>1614.824672701619</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="X14" t="n">
-        <v>1614.824672701619</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="Y14" t="n">
-        <v>1614.824672701619</v>
+        <v>1755.365134694847</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1203233351466</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F15" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M15" t="n">
         <v>1191.758623309281</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.04191212118991</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="C16" t="n">
-        <v>62.04191212118991</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="D16" t="n">
-        <v>62.04191212118991</v>
+        <v>452.6962312946108</v>
       </c>
       <c r="E16" t="n">
-        <v>62.04191212118991</v>
+        <v>304.7831377122177</v>
       </c>
       <c r="F16" t="n">
-        <v>62.04191212118991</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G16" t="n">
-        <v>62.04191212118991</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="V16" t="n">
-        <v>351.4590821581505</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="W16" t="n">
-        <v>62.04191212118991</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="X16" t="n">
-        <v>62.04191212118991</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.04191212118991</v>
+        <v>602.8128707069466</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1664.24845458823</v>
+        <v>1313.859960496092</v>
       </c>
       <c r="C17" t="n">
-        <v>1295.285937647818</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="D17" t="n">
-        <v>937.020239041068</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E17" t="n">
-        <v>551.2319864428237</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F17" t="n">
-        <v>140.2460816532161</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G17" t="n">
-        <v>140.2460816532161</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5542,25 +5542,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W17" t="n">
-        <v>2440.987626628164</v>
+        <v>1687.325718757172</v>
       </c>
       <c r="X17" t="n">
-        <v>2440.987626628164</v>
+        <v>1313.859960496092</v>
       </c>
       <c r="Y17" t="n">
-        <v>2050.848294652352</v>
+        <v>1313.859960496092</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>829.5376498283632</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>655.0846205472362</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>506.150210885985</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2330.293077861979</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2130.931754709148</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1902.754250778862</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1667.602142547119</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1413.364785818918</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.513285613385</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>997.7529868484312</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5700,25 +5700,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>424.5997883913113</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U19" t="n">
-        <v>424.5997883913113</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="V19" t="n">
-        <v>424.5997883913113</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="W19" t="n">
-        <v>135.1826183543507</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="X19" t="n">
-        <v>135.1826183543507</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>357.1045967113116</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>959.7198089835795</v>
+        <v>792.873703737558</v>
       </c>
       <c r="C20" t="n">
-        <v>959.7198089835795</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D20" t="n">
-        <v>601.454110376829</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E20" t="n">
-        <v>215.6658577785848</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
-        <v>215.6658577785848</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
-        <v>215.6658577785848</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2336.699385071795</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628164</v>
+        <v>2117.084780403482</v>
       </c>
       <c r="U20" t="n">
-        <v>2440.987626628164</v>
+        <v>1863.305086415365</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.924739284593</v>
+        <v>1532.242199071794</v>
       </c>
       <c r="W20" t="n">
-        <v>2109.924739284593</v>
+        <v>1179.47354380168</v>
       </c>
       <c r="X20" t="n">
-        <v>1736.458981023513</v>
+        <v>1179.47354380168</v>
       </c>
       <c r="Y20" t="n">
-        <v>1346.319649047701</v>
+        <v>1179.47354380168</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C21" t="n">
-        <v>569.6926365416016</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D21" t="n">
-        <v>420.7582268803504</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E21" t="n">
-        <v>261.5207718748949</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F21" t="n">
-        <v>114.9862139017798</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5834,22 +5834,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="F22" t="n">
         <v>48.81975253256327</v>
@@ -5943,19 +5943,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581503</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>96.77459395226342</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W22" t="n">
-        <v>96.77459395226342</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="X22" t="n">
-        <v>96.77459395226342</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1337.17746876542</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="C23" t="n">
-        <v>1337.17746876542</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.17746876542</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E23" t="n">
-        <v>951.3892161671761</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2348.281687987786</v>
       </c>
       <c r="U23" t="n">
-        <v>1717.224081305859</v>
+        <v>2348.281687987786</v>
       </c>
       <c r="V23" t="n">
-        <v>1386.161193962289</v>
+        <v>2348.281687987786</v>
       </c>
       <c r="W23" t="n">
-        <v>1337.17746876542</v>
+        <v>1995.513032717672</v>
       </c>
       <c r="X23" t="n">
-        <v>1337.17746876542</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="Y23" t="n">
-        <v>1337.17746876542</v>
+        <v>1622.047274456592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>850.7452172829803</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C24" t="n">
-        <v>676.2921880018533</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D24" t="n">
-        <v>527.3577783406021</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E24" t="n">
-        <v>368.1203233351466</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F24" t="n">
-        <v>221.5857653620315</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6098,22 +6098,22 @@
         <v>2280.589895521037</v>
       </c>
       <c r="T24" t="n">
-        <v>2081.228572368206</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U24" t="n">
-        <v>1923.961818233479</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V24" t="n">
-        <v>1688.809710001737</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W24" t="n">
-        <v>1434.572353273535</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X24" t="n">
-        <v>1226.720853068002</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.960554303048</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>302.6017715762974</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>143.9606191292022</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>385.9536814748711</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>96.53651143791052</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>776.0479680797255</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C26" t="n">
-        <v>407.0854511393138</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6229,10 +6229,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6256,22 +6256,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2187.207932640046</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V26" t="n">
-        <v>1892.421713586731</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W26" t="n">
-        <v>1539.653058316617</v>
+        <v>1595.223946261725</v>
       </c>
       <c r="X26" t="n">
-        <v>1166.187300055537</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="Y26" t="n">
-        <v>776.0479680797255</v>
+        <v>1221.758188000646</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6305,25 +6305,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1290.782696327151</v>
+        <v>932.2923146437827</v>
       </c>
       <c r="C29" t="n">
-        <v>1290.782696327151</v>
+        <v>932.2923146437827</v>
       </c>
       <c r="D29" t="n">
-        <v>1290.782696327151</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E29" t="n">
-        <v>904.9944437289064</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>494.0085389392988</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
-        <v>75.82087300987257</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>75.82087300987257</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.521868367084</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.382536391272</v>
+        <v>1318.892154707904</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P30" t="n">
         <v>2283.899498973758</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6657,16 +6657,16 @@
         <v>351.4590821581503</v>
       </c>
       <c r="V31" t="n">
-        <v>276.8093034305806</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W31" t="n">
-        <v>276.8093034305806</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>835.9699354024012</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="C32" t="n">
-        <v>467.0074184619895</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="D32" t="n">
-        <v>467.0074184619895</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="E32" t="n">
-        <v>467.0074184619895</v>
+        <v>685.379839060593</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>274.3939342709854</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>274.3939342709854</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6700,7 +6700,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K32" t="n">
         <v>412.307967997759</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2221.37302195985</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U32" t="n">
-        <v>2221.37302195985</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V32" t="n">
-        <v>2221.37302195985</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="W32" t="n">
-        <v>1868.604366689736</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="X32" t="n">
-        <v>1495.138608428656</v>
+        <v>1847.907263698771</v>
       </c>
       <c r="Y32" t="n">
-        <v>1104.999276452844</v>
+        <v>1457.767931722959</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,16 +6779,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G34" t="n">
         <v>48.81975253256327</v>
@@ -6888,22 +6888,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>620.5175494973971</v>
       </c>
       <c r="U34" t="n">
-        <v>351.4590821581503</v>
+        <v>620.5175494973971</v>
       </c>
       <c r="V34" t="n">
-        <v>338.2369225695239</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>715.8832973613621</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C35" t="n">
-        <v>715.8832973613621</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D35" t="n">
-        <v>715.8832973613621</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>330.0950447631179</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>330.0950447631179</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1786.314680039169</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>1455.251792695598</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>1102.483137425484</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X35" t="n">
-        <v>1102.483137425484</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y35" t="n">
-        <v>1102.483137425484</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="36">
@@ -7004,10 +7004,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>101.5297900452609</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7016,16 +7016,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F37" t="n">
         <v>48.81975253256327</v>
@@ -7122,25 +7122,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>571.3600264896883</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="U37" t="n">
-        <v>351.4590821581503</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="V37" t="n">
-        <v>338.2369225695239</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="W37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2054.387786564042</v>
+        <v>621.901912226136</v>
       </c>
       <c r="C38" t="n">
-        <v>1685.42526962363</v>
+        <v>621.901912226136</v>
       </c>
       <c r="D38" t="n">
-        <v>1327.159571016879</v>
+        <v>621.901912226136</v>
       </c>
       <c r="E38" t="n">
-        <v>941.3713184186352</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F38" t="n">
-        <v>530.3854136290277</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G38" t="n">
-        <v>530.3854136290277</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
         <v>210.9160074365284</v>
@@ -7174,10 +7174,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
         <v>795.0052981540048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628164</v>
+        <v>2065.799053165023</v>
       </c>
       <c r="U38" t="n">
-        <v>2440.987626628164</v>
+        <v>2065.799053165023</v>
       </c>
       <c r="V38" t="n">
-        <v>2440.987626628164</v>
+        <v>1734.736165821452</v>
       </c>
       <c r="W38" t="n">
-        <v>2440.987626628164</v>
+        <v>1381.967510551338</v>
       </c>
       <c r="X38" t="n">
-        <v>2440.987626628164</v>
+        <v>1008.501752290258</v>
       </c>
       <c r="Y38" t="n">
-        <v>2440.987626628164</v>
+        <v>1008.501752290258</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C39" t="n">
-        <v>722.1845715439331</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D39" t="n">
-        <v>573.2501618826818</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E39" t="n">
-        <v>414.0127068772263</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F39" t="n">
-        <v>267.4781489041113</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D40" t="n">
-        <v>337.8598519841734</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>337.8598519841734</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
-        <v>337.8598519841734</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7356,28 +7356,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>487.9764913965091</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>487.9764913965091</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="U40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="V40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="W40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="X40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y40" t="n">
-        <v>487.9764913965091</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1187.033872869333</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C41" t="n">
-        <v>818.0713559289213</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D41" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1908.236092188715</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V41" t="n">
-        <v>1577.173204845145</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W41" t="n">
-        <v>1577.173204845145</v>
+        <v>1539.653058316617</v>
       </c>
       <c r="X41" t="n">
-        <v>1577.173204845145</v>
+        <v>1166.187300055537</v>
       </c>
       <c r="Y41" t="n">
-        <v>1187.033872869333</v>
+        <v>776.0479680797255</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C42" t="n">
-        <v>722.1845715439331</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D42" t="n">
-        <v>573.2501618826818</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E42" t="n">
-        <v>414.0127068772263</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G42" t="n">
         <v>155.4193039928149</v>
@@ -7490,52 +7490,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7596,19 +7596,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>338.2369225695239</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X43" t="n">
         <v>48.81975253256327</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1040.089578155562</v>
+        <v>1104.999276452844</v>
       </c>
       <c r="C44" t="n">
-        <v>1040.089578155562</v>
+        <v>1104.999276452844</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.089578155562</v>
+        <v>746.733577846094</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.089578155562</v>
+        <v>746.733577846094</v>
       </c>
       <c r="F44" t="n">
         <v>629.1036733659547</v>
@@ -7648,52 +7648,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U44" t="n">
-        <v>1936.838685974173</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V44" t="n">
-        <v>1605.775798630602</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W44" t="n">
-        <v>1430.228910131374</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X44" t="n">
-        <v>1430.228910131374</v>
+        <v>1495.138608428656</v>
       </c>
       <c r="Y44" t="n">
-        <v>1040.089578155562</v>
+        <v>1104.999276452844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D45" t="n">
-        <v>547.7315422628061</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E45" t="n">
-        <v>388.4940872573506</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F45" t="n">
-        <v>241.9595292842356</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G45" t="n">
-        <v>103.9296417333972</v>
+        <v>190.1473403038886</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>83.54778884363691</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7730,22 +7730,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7763,16 +7763,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>306.3280265662696</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C46" t="n">
-        <v>198.936391944899</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>487.9764913965093</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W46" t="n">
-        <v>487.9764913965093</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X46" t="n">
-        <v>487.9764913965093</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y46" t="n">
-        <v>487.9764913965093</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104482</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730269</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817937</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>434.3429150104481</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>234.706379518209</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.9285660872088</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>61.77024252613234</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>13.32185961795358</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>60.93472548299937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,19 +23466,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>146.9435706360222</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>304.5352435022269</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>49.0720376176977</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>143.9648029298839</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,13 +23709,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>175.6889284816883</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>235.6803650721833</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23782,10 +23782,10 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>106.2795475015855</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23940,25 +23940,25 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>231.048919955683</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.0854161885252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>321.4900790629938</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>76.22050231243371</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>21.74148333600758</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>98.18145670663748</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24183,19 +24183,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.1093603465916</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>125.6395793676567</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>300.7470807725136</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="U24" t="n">
-        <v>70.20164229760309</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>43.7657167076605</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24423,13 +24423,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4700640727434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24496,22 +24496,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>35.91390160735295</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>57.10564224640456</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>92.88627525581299</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>268.851620944549</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>133.7441830823893</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>21.74148333600759</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>154.3192750320482</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>178.234362383534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>116.3947940235418</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>102.8739909805916</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25004,16 +25004,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25128,16 +25128,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>205.540446566526</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>239.0477053310879</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5432499618829</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25204,25 +25204,25 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>322.5098594448775</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
-        <v>53.35061880807848</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25362,19 +25362,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>145.2926357173931</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>239.0477053310879</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>9.917718771055377</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>93.84732509233527</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4.696845542078762</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>91.216128968671</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>38.31425549031869</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25596,13 +25596,13 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>2.053098066105093</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>9.636029320789078</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>35.91390160735318</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>25.71133221314663</v>
+        <v>4.69684554207879</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7880594838117</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6197173962968</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>290.4224403063735</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>175.449549103177</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.97476563682361</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>31.12404080756151</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>60.92910282347094</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>120.1696217084943</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26070,7 +26070,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
@@ -26082,10 +26082,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645967.6968830553</v>
+        <v>645967.6968830554</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645967.6968830554</v>
+        <v>645967.6968830555</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645967.6968830554</v>
+        <v>645967.6968830553</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645967.6968830553</v>
+        <v>645967.6968830555</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645967.6968830553</v>
+        <v>645967.6968830556</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645967.6968830554</v>
+        <v>645967.6968830555</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645967.6968830553</v>
+        <v>645967.6968830555</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26325,19 +26325,19 @@
         <v>311813.7524761211</v>
       </c>
       <c r="F2" t="n">
+        <v>311813.752476121</v>
+      </c>
+      <c r="G2" t="n">
         <v>311813.7524761209</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>311813.7524761208</v>
       </c>
-      <c r="H2" t="n">
-        <v>311813.7524761209</v>
-      </c>
       <c r="I2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="J2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="K2" t="n">
         <v>311813.7524761208</v>
@@ -26346,10 +26346,10 @@
         <v>311813.7524761209</v>
       </c>
       <c r="M2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761207</v>
       </c>
       <c r="N2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="O2" t="n">
         <v>311813.7524761208</v>
@@ -26420,7 +26420,7 @@
         <v>287492.6387038018</v>
       </c>
       <c r="C4" t="n">
-        <v>287492.6387038018</v>
+        <v>287492.6387038019</v>
       </c>
       <c r="D4" t="n">
         <v>287492.6387038018</v>
@@ -26432,34 +26432,34 @@
         <v>9246.781534682701</v>
       </c>
       <c r="G4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="H4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="I4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="J4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="K4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
       <c r="L4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="M4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="N4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="O4" t="n">
+        <v>9246.781534682699</v>
+      </c>
+      <c r="P4" t="n">
         <v>9246.781534682701</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9246.781534682699</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>55555.67867285183</v>
       </c>
       <c r="C6" t="n">
+        <v>136325.1102043994</v>
+      </c>
+      <c r="D6" t="n">
         <v>136325.1102043995</v>
       </c>
-      <c r="D6" t="n">
-        <v>136325.1102043996</v>
-      </c>
       <c r="E6" t="n">
-        <v>-117973.2907854124</v>
+        <v>-111701.2586690533</v>
       </c>
       <c r="F6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637266</v>
       </c>
       <c r="G6" t="n">
-        <v>251462.0083473674</v>
+        <v>257734.0404637266</v>
       </c>
       <c r="H6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637264</v>
       </c>
       <c r="I6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637264</v>
       </c>
       <c r="J6" t="n">
-        <v>188402.0657482613</v>
+        <v>194674.0978646202</v>
       </c>
       <c r="K6" t="n">
-        <v>251462.0083473674</v>
+        <v>257734.0404637264</v>
       </c>
       <c r="L6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637265</v>
       </c>
       <c r="M6" t="n">
-        <v>159447.7630662745</v>
+        <v>165719.7951826333</v>
       </c>
       <c r="N6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637264</v>
       </c>
       <c r="O6" t="n">
-        <v>251462.0083473674</v>
+        <v>257734.0404637264</v>
       </c>
       <c r="P6" t="n">
-        <v>251462.0083473675</v>
+        <v>257734.0404637265</v>
       </c>
     </row>
   </sheetData>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.8814368875686</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>140.6478097647409</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27514,13 +27514,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>184.74459139164</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>125.4670514759408</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>56.45145718935685</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>67.81068582972321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>303.8671480099096</v>
       </c>
       <c r="G8" t="n">
-        <v>319.1698855250446</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>14.15885273436891</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35500,7 +35500,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891401</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781883</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009465</v>
@@ -35974,7 +35974,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36685,7 +36685,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36928,7 +36928,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926721</v>
       </c>
       <c r="Q30" t="n">
         <v>158.6748764185921</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37867,7 +37867,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>468.0345334781882</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
